--- a/DateTables/Datas/レベル.xlsx
+++ b/DateTables/Datas/レベル.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ruby_etc\ruby_object\wand_sword_saga_ruby\DateTables\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92167BDB-CF60-4C09-9F8F-7DB7A953BFB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D3241A3-0E57-4621-A419-CC4525A9941F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16650" yWindow="3030" windowWidth="19530" windowHeight="16635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -198,10 +198,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -487,51 +487,51 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="9" style="3"/>
-    <col min="3" max="3" width="16.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="3"/>
+    <col min="1" max="2" width="9" style="2"/>
+    <col min="3" max="3" width="16.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -544,266 +544,265 @@
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B5" s="3">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3">
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
         <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>2</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <f>C5*2</f>
         <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>3</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <f t="shared" ref="C7:C24" si="0">C6*2</f>
         <v>400</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>4</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <f t="shared" si="0"/>
         <v>800</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>5</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <f t="shared" si="0"/>
         <v>1600</v>
       </c>
-      <c r="D9" s="3">
-        <v>1</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-      <c r="F9" s="3">
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2">
         <v>10000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="2">
         <v>2</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="2">
         <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>6</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <f t="shared" si="0"/>
         <v>3200</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>7</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <f t="shared" si="0"/>
         <v>6400</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>8</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <f t="shared" si="0"/>
         <v>12800</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>9</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <f t="shared" si="0"/>
         <v>25600</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <v>10</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <f t="shared" si="0"/>
         <v>51200</v>
       </c>
-      <c r="D14" s="3">
-        <v>1</v>
-      </c>
-      <c r="E14" s="3">
-        <v>1</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2">
         <v>10000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="2">
         <v>2</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="2">
         <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <v>11</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <f t="shared" si="0"/>
         <v>102400</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B16" s="3">
+      <c r="B16" s="2">
         <v>12</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="2">
         <f t="shared" si="0"/>
         <v>204800</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <v>13</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="2">
         <f t="shared" si="0"/>
         <v>409600</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <v>14</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="2">
         <f t="shared" si="0"/>
         <v>819200</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B19" s="3">
+      <c r="B19" s="2">
         <v>15</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="2">
         <f t="shared" si="0"/>
         <v>1638400</v>
       </c>
-      <c r="D19" s="3">
-        <v>1</v>
-      </c>
-      <c r="E19" s="3">
-        <v>1</v>
-      </c>
-      <c r="F19" s="3">
+      <c r="D19" s="2">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2">
         <v>10000</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="2">
         <v>2</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="2">
         <v>100</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B20" s="3">
+      <c r="B20" s="2">
         <v>16</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="2">
         <f t="shared" si="0"/>
         <v>3276800</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B21" s="3">
+      <c r="B21" s="2">
         <v>17</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="2">
         <f t="shared" si="0"/>
         <v>6553600</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B22" s="3">
+      <c r="B22" s="2">
         <v>18</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="2">
         <f t="shared" si="0"/>
         <v>13107200</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B23" s="3">
+      <c r="B23" s="2">
         <v>19</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="2">
         <f t="shared" si="0"/>
         <v>26214400</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B24" s="3">
+      <c r="B24" s="2">
         <v>20</v>
       </c>
-      <c r="C24" s="3">
-        <f t="shared" si="0"/>
-        <v>52428800</v>
-      </c>
-      <c r="D24" s="3">
-        <v>1</v>
-      </c>
-      <c r="E24" s="3">
-        <v>1</v>
-      </c>
-      <c r="F24" s="3">
+      <c r="C24" s="2">
+        <v>0</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1</v>
+      </c>
+      <c r="E24" s="2">
+        <v>1</v>
+      </c>
+      <c r="F24" s="2">
         <v>10000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="2">
         <v>2</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24" s="2">
         <v>100</v>
       </c>
     </row>
